--- a/grafo/entidades.xlsx
+++ b/grafo/entidades.xlsx
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>place</t>
+          <t>event</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>place</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -542,7 +542,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>religious_figure</t>
+          <t>plant</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -568,7 +568,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>artwork</t>
+          <t>religious_figure</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -581,7 +581,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>event</t>
+          <t>location</t>
         </is>
       </c>
       <c r="C12" t="n">
